--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/14.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/14.xlsx
@@ -479,13 +479,13 @@
         <v>-19.47339437419893</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.864735506457604</v>
+        <v>-8.944808030637601</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.898926593659762</v>
+        <v>-2.900667869937711</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.386254656742247</v>
+        <v>-5.477782945908753</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-18.5975833755092</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.136531713451838</v>
+        <v>-9.220466466970143</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.942838177390911</v>
+        <v>-2.935126811017134</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.309717054329516</v>
+        <v>-5.406351341604297</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-17.66929850309647</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.959736439231047</v>
+        <v>-10.04436508479997</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.81631416272847</v>
+        <v>-2.805827228152248</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.176044642315493</v>
+        <v>-5.27387032914887</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-16.75596597090947</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.72995661540979</v>
+        <v>-10.81230720028425</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.744489789338761</v>
+        <v>-2.730062071607179</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.397854437060016</v>
+        <v>-5.497120277205983</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-15.87578330212791</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.52208021424275</v>
+        <v>-11.60746821337648</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.592841645523048</v>
+        <v>-2.576973774478876</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.945528466181222</v>
+        <v>-5.042437691815679</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-15.05658649803894</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.20505328428423</v>
+        <v>-12.29290263635221</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.579422035110279</v>
+        <v>-2.560267996052833</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.05124881162816</v>
+        <v>-5.145330099848803</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-14.32838354242348</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.72629713732187</v>
+        <v>-12.81701370371219</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.455830696284385</v>
+        <v>-2.437239626249133</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.601240178352352</v>
+        <v>-4.689495391808427</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-13.71384537496732</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.68630333549427</v>
+        <v>-13.78145819254794</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.195424792762453</v>
+        <v>-2.183209674211123</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.500219969625594</v>
+        <v>-4.579703340177712</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-13.22157953019705</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.44441313154442</v>
+        <v>-14.54291961812557</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.175877984619756</v>
+        <v>-2.166700280327706</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.087498214843021</v>
+        <v>-4.172388706468773</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-12.85182044447885</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.1149616061891</v>
+        <v>-15.21137332431558</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.014371336764223</v>
+        <v>-2.001396864648073</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.876253908491771</v>
+        <v>-3.955580171409789</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-12.60502354016336</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.76084418227998</v>
+        <v>-15.86126214507602</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.033643206547244</v>
+        <v>-2.026966132097964</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.369175927128878</v>
+        <v>-3.445477868090458</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-12.46551630444425</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.72132170335468</v>
+        <v>-16.82514366488957</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.844799830358187</v>
+        <v>-1.83625055660254</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.72665807286833</v>
+        <v>-2.805552289792571</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-12.42859107294282</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.34028650480297</v>
+        <v>-17.44215771321444</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.590861524440068</v>
+        <v>-1.580701897434889</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.350254366168706</v>
+        <v>-2.440303225114097</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-12.47356028019817</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.23932184864146</v>
+        <v>-18.34045988809379</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.446296316461729</v>
+        <v>-1.435822474188348</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.788188712870564</v>
+        <v>-1.874650280837323</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-12.5748583023148</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.13202051790455</v>
+        <v>-19.23389172631602</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.288494790310405</v>
+        <v>-1.277012840718211</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.373503112661732</v>
+        <v>-1.464154217537843</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-12.70310082797287</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.92547953162736</v>
+        <v>-20.0280970013008</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.056564645469227</v>
+        <v>-1.048093925530631</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.8566059041675452</v>
+        <v>-0.952114253397937</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-12.83908499484687</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.88064157774832</v>
+        <v>-20.98644047701231</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9731273994589072</v>
+        <v>-0.965350571570922</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.49104262422087</v>
+        <v>-0.5855690507381323</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-12.95977749355908</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.71674222182663</v>
+        <v>-21.8225018441821</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8217672863057122</v>
+        <v>-0.818049072298662</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1172050088782238</v>
+        <v>-0.2127264504114572</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-13.05782344100722</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.35609173879948</v>
+        <v>-22.46280709926239</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5717828558457947</v>
+        <v>-0.5702641487161544</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2612018201561847</v>
+        <v>0.1602601652464767</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-13.12226096354841</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.98067313816687</v>
+        <v>-23.08623637597971</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.2728070281521381</v>
+        <v>-0.2764597806449797</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6001615407284726</v>
+        <v>0.5018252540842681</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-13.14449387303287</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.6205201626477</v>
+        <v>-23.72668564639126</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.04713500406930592</v>
+        <v>-0.05750410791995297</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6118660594689758</v>
+        <v>0.5331289501788351</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-13.11778306365746</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.10106004615042</v>
+        <v>-24.20191005494023</v>
       </c>
       <c r="F23" t="n">
-        <v>0.05100489803227268</v>
+        <v>0.03945748692587029</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8794596372510148</v>
+        <v>0.7925398386847955</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-13.0444312560666</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.46820749474094</v>
+        <v>-24.57340414807421</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03017504421108651</v>
+        <v>0.01492251140047564</v>
       </c>
       <c r="G24" t="n">
-        <v>0.823529319511161</v>
+        <v>0.746585855710337</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-12.92330420840535</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.75394700426161</v>
+        <v>-24.85736310440841</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3156788922806069</v>
+        <v>0.3039089120258952</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7950535608304069</v>
+        <v>0.721396265042856</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-12.76270656903325</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.76180238596665</v>
+        <v>-24.86355576365254</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3295698255956782</v>
+        <v>0.311803570639456</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6601635646521032</v>
+        <v>0.5812038862136533</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-12.56409156598676</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.70291320778457</v>
+        <v>-24.81608307354844</v>
       </c>
       <c r="F27" t="n">
-        <v>0.138500757923528</v>
+        <v>0.1192943496547159</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6311510215548383</v>
+        <v>0.5629663083551288</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-12.32659948939482</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.80543903133812</v>
+        <v>-24.90662944000182</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2808402744187738</v>
+        <v>0.2662947259616161</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3309052404855343</v>
+        <v>0.262956188736976</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-12.0486444576965</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.84108937197614</v>
+        <v>-24.95016134695056</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2580596674741705</v>
+        <v>0.2380284441263296</v>
       </c>
       <c r="G29" t="n">
-        <v>0.218219789926798</v>
+        <v>0.157091827958779</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-11.73290596824158</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.63802775490097</v>
+        <v>-24.7413914858364</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1052070317970186</v>
+        <v>0.09016397583187535</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02728164528306505</v>
+        <v>-0.03079581012283179</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-11.37973633183359</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.1631175616202</v>
+        <v>-24.27161347526958</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1123030599372341</v>
+        <v>0.09627808125896142</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.4697938167087486</v>
+        <v>-0.5277665336919116</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-10.99939880831161</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.21314325077843</v>
+        <v>-24.31962294979019</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1618574261931673</v>
+        <v>0.1473249700388514</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.5832255285294632</v>
+        <v>-0.6455187054503959</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-10.59755143548231</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.81924822748226</v>
+        <v>-23.92490311141499</v>
       </c>
       <c r="F33" t="n">
-        <v>0.09369889759914139</v>
+        <v>0.07957230283291897</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.08206845140491</v>
+        <v>-1.146351658357785</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-10.1791414101406</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.24072554951207</v>
+        <v>-23.34080311243423</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.04091616021948604</v>
+        <v>-0.04631018899027718</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.162023144859331</v>
+        <v>-1.223779537363753</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-9.750046510235082</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.87662860748367</v>
+        <v>-22.98067313816687</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2391074406375353</v>
+        <v>-0.2431922391241538</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.217167924428681</v>
+        <v>-1.291139435484433</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-9.318693614894613</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.1517077991373</v>
+        <v>-22.24809333265808</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.3566894124590771</v>
+        <v>-0.3578939043205159</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.418985772733889</v>
+        <v>-1.485481578867015</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-8.892177168297696</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.3559314478115</v>
+        <v>-21.45002582833499</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.292458574717569</v>
+        <v>-0.2965564655070292</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.537837697931078</v>
+        <v>-1.61097130160496</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-8.483947990206063</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.98331141663314</v>
+        <v>-21.07576925930141</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.3728714987714505</v>
+        <v>-0.3753197594028533</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.79362201854988</v>
+        <v>-1.867619714211316</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-8.101200418104211</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.32700736748025</v>
+        <v>-20.4210886557009</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2119540045437954</v>
+        <v>-0.2226766005711691</v>
       </c>
       <c r="G39" t="n">
-        <v>-1.953295744007571</v>
+        <v>-2.030383223139654</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-7.747858084050918</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.99171349170365</v>
+        <v>-20.08007344358246</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.4821660428941797</v>
+        <v>-0.4863032105921651</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.172081216795656</v>
+        <v>-2.248540265391336</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-7.426968122123737</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.46176325727626</v>
+        <v>-19.53653339880536</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.1967800255502349</v>
+        <v>-0.2062064835962777</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.025237948122856</v>
+        <v>-2.103883411293104</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-7.141821830448514</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.87999368820132</v>
+        <v>-18.96585301023736</v>
       </c>
       <c r="F42" t="n">
-        <v>0.03643316496943157</v>
+        <v>0.02806718345356861</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.053870814437711</v>
+        <v>-2.140633505369829</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.894357054680478</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.98832931086272</v>
+        <v>-18.07227715668387</v>
       </c>
       <c r="F43" t="n">
-        <v>0.05067759046122953</v>
+        <v>0.04070125569583426</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.951829406089298</v>
+        <v>-2.04749486295379</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.690126323567238</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.64117380871152</v>
+        <v>-17.73035857566935</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08132667141371025</v>
+        <v>0.07364148964561705</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.144836134582023</v>
+        <v>-2.239205453465185</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.528909589116821</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.09737191787758</v>
+        <v>-17.18670070016668</v>
       </c>
       <c r="F45" t="n">
-        <v>0.05086088270101369</v>
+        <v>0.04506099254212904</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.202586282416877</v>
+        <v>-2.296667570637521</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.407216133051487</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.67917758050717</v>
+        <v>-16.76228751894644</v>
       </c>
       <c r="F46" t="n">
-        <v>0.09191834441266665</v>
+        <v>0.08949626838694733</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.133183985052887</v>
+        <v>-2.217079461662668</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-6.321603666017398</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.05159804378903</v>
+        <v>-16.13126470658093</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1092918302836371</v>
+        <v>0.1031122633423424</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.452191036094385</v>
+        <v>-2.543038525513122</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-6.26932808281647</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.3926755340678</v>
+        <v>-15.4711507973011</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09881798801025628</v>
+        <v>0.0951128663060478</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.377656556016438</v>
+        <v>-2.464340693131506</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-6.247856434165281</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.84189544581922</v>
+        <v>-14.91303901946116</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2268476174994955</v>
+        <v>0.2186387436177332</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.593784291327652</v>
+        <v>-2.686425426235706</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-6.2571327342207</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.16931766423407</v>
+        <v>-14.23568254733878</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3727220557620073</v>
+        <v>0.3605462141192021</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.554952521099092</v>
+        <v>-2.648706501748693</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-6.293698818016416</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.37673583480166</v>
+        <v>-13.43832202736914</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3609651678101373</v>
+        <v>0.3534240013733032</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.628256324709917</v>
+        <v>-2.728988502774157</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-6.351608670390989</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.76701419915963</v>
+        <v>-12.83243643645974</v>
       </c>
       <c r="F52" t="n">
-        <v>0.4462484285211409</v>
+        <v>0.4365732167211054</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.628426524646859</v>
+        <v>-2.721761551605524</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.426772286417767</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.1367376480561</v>
+        <v>-12.20073282434646</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5000708855034768</v>
+        <v>0.4899636277096643</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.665595572414519</v>
+        <v>-2.759847060572106</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.515918511860411</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.7534081131532</v>
+        <v>-11.81978608856075</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3994041689534451</v>
+        <v>0.3901740954500282</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.770478010479587</v>
+        <v>-2.873894110626381</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-6.616539419318978</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.27968931943103</v>
+        <v>-11.33111588499333</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1415381721828085</v>
+        <v>0.1417869259368012</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.255901322942265</v>
+        <v>-3.35583487053316</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.727916674106722</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.86882667165198</v>
+        <v>-10.92001757576313</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2231948650066539</v>
+        <v>0.2144361144055392</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.334952647500606</v>
+        <v>-3.437465378751322</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-6.846932474915908</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.1038041397014</v>
+        <v>-10.15495576690402</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1819541110552168</v>
+        <v>0.1702103154061885</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.694244714386095</v>
+        <v>-3.803172674029256</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-6.967720704568281</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.804278435288392</v>
+        <v>-9.857210615677491</v>
       </c>
       <c r="F58" t="n">
-        <v>0.007800298654576657</v>
+        <v>-0.0007882520095956438</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.717116967450591</v>
+        <v>-3.824761881415262</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.087430352981021</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.22961798665651</v>
+        <v>-9.282196674868882</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08768953059478912</v>
+        <v>0.07284285917227176</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.001416323658672</v>
+        <v>-4.11099889844392</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.203849640698179</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.89708658677951</v>
+        <v>-8.947439583508787</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.04487003567768732</v>
+        <v>-0.05495110886581639</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.922875598911157</v>
+        <v>-4.03067762050993</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-7.316195594892418</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.358731093927734</v>
+        <v>-8.409791075010466</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.06894678060362155</v>
+        <v>-0.07968246893383693</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.327349202903442</v>
+        <v>-4.429717918822899</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-7.425214520218919</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.87523234998279</v>
+        <v>-7.924970008478507</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.02716924223567367</v>
+        <v>-0.04028772968308319</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.295220691729846</v>
+        <v>-4.407028957998187</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.529916462529392</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.404302216765903</v>
+        <v>-7.45722130485216</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.04700408104088866</v>
+        <v>-0.05660073902387387</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.291018062517653</v>
+        <v>-4.401111237113727</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.626443679852034</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.07304077026455</v>
+        <v>-7.125409981631455</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.2151485264371766</v>
+        <v>-0.2218779700978238</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.508952535621025</v>
+        <v>-4.613416019995157</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.714926829784864</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.689868342995753</v>
+        <v>-6.744659630388377</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.1687624974689411</v>
+        <v>-0.1732793419493366</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.779007466337308</v>
+        <v>-4.879634905978815</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-7.795089686032275</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.438757974491447</v>
+        <v>-6.495067969013711</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.2719953053759511</v>
+        <v>-0.2785807337053394</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.758413273967273</v>
+        <v>-4.857076868182521</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-7.868698355442158</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.290107968026489</v>
+        <v>-6.344676686270804</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.3401276493642936</v>
+        <v>-0.3498159534671709</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.850098670767881</v>
+        <v>-4.950713018106546</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-7.938370291040233</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.01613843876053</v>
+        <v>-6.07044531094801</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.3016231867067772</v>
+        <v>-0.3109579986329279</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.864107434808528</v>
+        <v>-4.959628876341761</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.004960263889775</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.878970381887766</v>
+        <v>-5.93497925344467</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.5545272007003997</v>
+        <v>-0.5661531656238524</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.938615730280791</v>
+        <v>-5.028847881465967</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.065413557731656</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.678631963803674</v>
+        <v>-5.737717526528384</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5083244639719484</v>
+        <v>-0.517567629778207</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.780107219776013</v>
+        <v>-4.869710940424786</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-8.121016357354124</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.562974560499866</v>
+        <v>-5.624102522467885</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.5806856217781684</v>
+        <v>-0.5903346489725205</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.742165726140692</v>
+        <v>-4.825760079785113</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-8.171420226771914</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.573644787315872</v>
+        <v>-5.635191702974827</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.6935412722738471</v>
+        <v>-0.7031641148625157</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.623078139492351</v>
+        <v>-4.700754772252312</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-8.218817671768052</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.621785184864899</v>
+        <v>-5.682572746959033</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.7247271376428386</v>
+        <v>-0.7348867646480181</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.419833230177395</v>
+        <v>-4.501057877007464</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-8.264986899592397</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.86299777242086</v>
+        <v>-5.920407520381829</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.6162050393877712</v>
+        <v>-0.6242829902411162</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.287273663904919</v>
+        <v>-4.363078097358513</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-8.309257705472723</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.075708416690383</v>
+        <v>-6.131520903704661</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.9571286053863181</v>
+        <v>-0.9685843703728283</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.117139188476688</v>
+        <v>-4.192995991141649</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-8.346454775035028</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.570021402782593</v>
+        <v>-6.622456075663706</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.8823977407657456</v>
+        <v>-0.8916278142691625</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.948353220241156</v>
+        <v>-4.022102162148599</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-8.376277914444458</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.025751372400236</v>
+        <v>-7.076091276826673</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.9416665957302396</v>
+        <v>-0.950674100085347</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.870807510509613</v>
+        <v>-3.941663053489034</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-8.395803075390475</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.604614450244312</v>
+        <v>-7.658017953535713</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.9983562670349134</v>
+        <v>-1.009209786090704</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.499405063495528</v>
+        <v>-3.570574821743151</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-8.405633262121146</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.027508924334906</v>
+        <v>-8.079904320307493</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.9605195118223251</v>
+        <v>-0.9750519679766411</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.305350950775464</v>
+        <v>-3.38488669053895</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-8.405029836611012</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.500415995280893</v>
+        <v>-8.550598792073229</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.167692111989798</v>
+        <v>-1.177720815966561</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.929366197766775</v>
+        <v>-3.012973643714037</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-8.391130480123122</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.415921456094273</v>
+        <v>-9.461744516040312</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.087108987998974</v>
+        <v>-1.101785459484549</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.923513938396523</v>
+        <v>-3.007016645921052</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-8.357608518370014</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.21313796073266</v>
+        <v>-10.2532527766397</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.179108600067784</v>
+        <v>-1.191166610985013</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.7309785328061</v>
+        <v>-2.813224379257823</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-8.303615493609179</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.03830653193812</v>
+        <v>-11.07349864197668</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.283048392328247</v>
+        <v>-1.300238585959433</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.369473866740359</v>
+        <v>-2.455830696284385</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-8.225294768665599</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.23952531766649</v>
+        <v>-12.27410208947149</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.366302346098783</v>
+        <v>-1.382065478720221</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.234649332076264</v>
+        <v>-2.317248670704714</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-8.123987613975952</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.1135281784716</v>
+        <v>-13.15082814926768</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.454426636526441</v>
+        <v>-1.467479662459642</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.897980764501279</v>
+        <v>-1.981771502688325</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-7.999665284398884</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.29178306501558</v>
+        <v>-14.32193463846007</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.636985707351469</v>
+        <v>-1.649724518016469</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.648965164451649</v>
+        <v>-1.732611887307437</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-7.850933046709269</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.36922721967827</v>
+        <v>-15.39686507097715</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.688608657456395</v>
+        <v>-1.700732129887834</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.238613116483428</v>
+        <v>-1.322024177888065</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-7.674213823764704</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.75003312348659</v>
+        <v>-16.77857434368155</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.680569983511575</v>
+        <v>-1.685780720042582</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.9164377281542334</v>
+        <v>-1.002375604007323</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-7.470462480490504</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.41614649082181</v>
+        <v>-18.4423441888081</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.921913494095954</v>
+        <v>-1.926927846084335</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.7170419558747454</v>
+        <v>-0.8029274625164684</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.237148685005492</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.00339182583847</v>
+        <v>-20.02711507858767</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.131063031992527</v>
+        <v>-2.135789353318391</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.4124364379591467</v>
+        <v>-0.5030089890182077</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-6.977699495767002</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.82208289049116</v>
+        <v>-21.83385287074587</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.321791699790793</v>
+        <v>-2.325968144397303</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.5537678471355796</v>
+        <v>-0.64570199769018</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.693898196288431</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.5168814933526</v>
+        <v>-23.52488089038889</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.415113634446616</v>
+        <v>-2.420939709211185</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.3714313454588606</v>
+        <v>-0.459450897463785</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.387089771148464</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.58889552568985</v>
+        <v>-25.60172598247474</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.589044877698947</v>
+        <v>-2.584449479401501</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.367542931514868</v>
+        <v>-0.4550911606174902</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.057833160309669</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.81499287017138</v>
+        <v>-27.82544052783907</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.462952909030284</v>
+        <v>-2.459182325811867</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.4910033473123448</v>
+        <v>-0.5785646687178088</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-5.710870165708786</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.09997939283499</v>
+        <v>-30.10943203548671</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.947603775625299</v>
+        <v>-2.937365594803069</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.8496015221472218</v>
+        <v>-0.9347538598298082</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-5.346855081468484</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.28639396740324</v>
+        <v>-32.30019325459842</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.016704950023929</v>
+        <v>-3.005589584911304</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.09564516945178</v>
+        <v>-1.180941522465625</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.975166561097025</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.50568331440707</v>
+        <v>-34.52005866292728</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.373771325426324</v>
+        <v>-3.356777516337764</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.299688709240081</v>
+        <v>-1.381044279098566</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.598140766047309</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.02397467371024</v>
+        <v>-37.03807508387077</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.642582487372644</v>
+        <v>-3.622367971785019</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.71140235670384</v>
+        <v>-1.793766033881139</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.223576143694051</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.54889073825132</v>
+        <v>-39.55627479705404</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.579071726287431</v>
+        <v>-3.559276164390741</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.17302386260026</v>
+        <v>-2.25282144842058</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.847421791871751</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.11504755674383</v>
+        <v>-42.12122712368512</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.753932523041524</v>
+        <v>-3.733770376665266</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.517338335034814</v>
+        <v>-2.592723814797472</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.484456625772823</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.39935327965967</v>
+        <v>-44.40910704527676</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.014993041705542</v>
+        <v>-3.989371405044284</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.091540553067235</v>
+        <v>-3.164739618255326</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-3.119476186488078</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.74478696454353</v>
+        <v>-46.75160805432407</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.165934201167802</v>
+        <v>-4.138689118954169</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.412406711112258</v>
+        <v>-3.484938068855421</v>
       </c>
     </row>
   </sheetData>
